--- a/szablony/szablon_dnia.xlsx
+++ b/szablony/szablon_dnia.xlsx
@@ -5,24 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Antek\Pulpit\usprawnienie\szablony\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoni Szczakiewicz\Desktop\usprawnienie\szablony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD328F0C-70ED-434B-98D6-F0124BE3EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE83FA-2596-486F-B3D2-7F71FC311147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="20256" windowHeight="10224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
     <sheet name="TW1" sheetId="5" r:id="rId2"/>
-    <sheet name="K2" sheetId="2" r:id="rId3"/>
-    <sheet name="TW2" sheetId="6" r:id="rId4"/>
-    <sheet name="K3" sheetId="3" r:id="rId5"/>
-    <sheet name="TW3" sheetId="7" r:id="rId6"/>
-    <sheet name="K4" sheetId="4" r:id="rId7"/>
-    <sheet name="TW4" sheetId="8" r:id="rId8"/>
-    <sheet name="ALARMY" sheetId="9" r:id="rId9"/>
-    <sheet name="INKUBACJA" sheetId="10" r:id="rId10"/>
+    <sheet name="K2" sheetId="13" r:id="rId3"/>
+    <sheet name="TW2" sheetId="14" r:id="rId4"/>
+    <sheet name="ALARMY" sheetId="9" r:id="rId5"/>
+    <sheet name="INKUBACJA" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,12 +41,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>średnia wilgotnosc:</t>
-  </si>
-  <si>
-    <t>średnia temperatura:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+  <si>
+    <t>wilgotnosc</t>
+  </si>
+  <si>
+    <t>temperatura</t>
+  </si>
+  <si>
+    <t>time_ms</t>
+  </si>
+  <si>
+    <t>timestring</t>
+  </si>
+  <si>
+    <t>particle 5</t>
+  </si>
+  <si>
+    <t>particle 0.5</t>
+  </si>
+  <si>
+    <t>MAX 5:</t>
+  </si>
+  <si>
+    <t>MAX 0.5</t>
+  </si>
+  <si>
+    <t>TEMPERATURA:</t>
+  </si>
+  <si>
+    <t>średnia:</t>
+  </si>
+  <si>
+    <t>maksimum:</t>
+  </si>
+  <si>
+    <t>minimum:</t>
+  </si>
+  <si>
+    <t>WILGOTNOŚĆ:</t>
+  </si>
+  <si>
+    <t>KAMPANIA:</t>
+  </si>
+  <si>
+    <t>Nazwa kampanii</t>
+  </si>
+  <si>
+    <t>PRODUKT:</t>
+  </si>
+  <si>
+    <t>Nazwa produktu</t>
+  </si>
+  <si>
+    <t>LICZBA POMIARÓW:</t>
+  </si>
+  <si>
+    <t>MAX 0.5:</t>
   </si>
 </sst>
 </file>
@@ -74,10 +121,72 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -86,8 +195,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -145,13 +260,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7362454510170127E-2"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.92023187804306306"/>
+          <c:h val="0.46660433070866142"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -160,9 +285,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TW1'!$C$2</c:f>
+              <c:f>'K1'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>particle 5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -180,26 +308,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'TW1'!$B$3:$B$15</c:f>
+              <c:f>'K1'!$C$4:$C$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="197"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TW1'!$C$3:$C$15</c:f>
+              <c:f>'K1'!$D$4:$D$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="197"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-381F-4552-A577-A3953E05802F}"/>
+              <c16:uniqueId val="{00000004-353A-4890-A6F7-181668A18153}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -212,11 +340,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="97322808"/>
-        <c:axId val="97321008"/>
+        <c:axId val="2092453552"/>
+        <c:axId val="1269863936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97322808"/>
+        <c:axId val="2092453552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -256,10 +384,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97321008"/>
+        <c:crossAx val="1269863936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -267,7 +395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97321008"/>
+        <c:axId val="1269863936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -315,10 +443,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97322808"/>
+        <c:crossAx val="2092453552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -331,14 +459,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -363,7 +484,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -934,23 +1055,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC04CE4-1708-0D04-25AC-0DE69D9A8CDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C82898-D664-FE8C-8099-D5DB3D0B5A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,22 +1355,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3">
+        <f>MAX(D2:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1">
+        <f>MAX(E2:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <f>COUNTA(B4:B1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>SUM(E4:INDEX(E4:E1048576, J4, 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961867BD-01C0-400C-98B8-8EFA48158EB5}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="1" max="8" width="20.77734375" customWidth="1"/>
+    <col min="9" max="15" width="10.77734375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="e">
+        <f>AVERAGE(D2:D1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6">
+        <f>MAX(D4:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <f>MIN(D4:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6" t="e">
+        <f>AVERAGE(E4:E1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6">
+        <f>MAX(E4:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <f>MIN(E4:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F95402-9C3F-46BD-9B44-B02D601CDF74}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3">
+        <f>MAX(D2:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <f>MAX(E2:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D8B0D5-D338-4A4C-A7F2-82AB45388D3F}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="e">
+        <f>AVERAGE(D2:D1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6">
+        <f>MAX(D4:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1">
+        <f>MIN(D4:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="6" t="e">
+        <f>AVERAGE(E4:E1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="6">
+        <f>MAX(E4:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1">
+        <f>MIN(E4:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96D9552-2A2F-46BB-BE26-599EEB233E81}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3593381C-8472-4227-8F05-DFF81ACC5285}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1257,130 +1767,7 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961867BD-01C0-400C-98B8-8EFA48158EB5}">
-  <dimension ref="L2:M3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="e">
-        <f>AVERAGE(E2:E1048576)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="e">
-        <f>AVERAGE(D2:D1048576)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0B8347-8436-4092-B5A2-7021061035D2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AB9AD8-8F25-48C3-A681-62DC1A24455E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00E5878-9FE4-441A-A4B6-50F4FC68C34B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E42972-AB8A-4D69-B4DB-15D32796559F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE34BF03-80A9-44CF-B652-667BB807900F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E674C2-E647-43AC-AE75-ACDDFE96B913}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96D9552-2A2F-46BB-BE26-599EEB233E81}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/szablony/szablon_dnia.xlsx
+++ b/szablony/szablon_dnia.xlsx
@@ -5,20 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoni Szczakiewicz\Desktop\usprawnienie\szablony\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Antek\Pulpit\usprawnienie\szablony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE83FA-2596-486F-B3D2-7F71FC311147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33F4FB9-719F-4B70-9C1A-7628C83CDC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="20256" windowHeight="10224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
-    <sheet name="TW1" sheetId="5" r:id="rId2"/>
-    <sheet name="K2" sheetId="13" r:id="rId3"/>
-    <sheet name="TW2" sheetId="14" r:id="rId4"/>
-    <sheet name="ALARMY" sheetId="9" r:id="rId5"/>
-    <sheet name="INKUBACJA" sheetId="10" r:id="rId6"/>
+    <sheet name="Temp i wilg K1" sheetId="5" r:id="rId2"/>
+    <sheet name="K2" sheetId="21" r:id="rId3"/>
+    <sheet name="Temp i wilg K2" sheetId="22" r:id="rId4"/>
+    <sheet name="K3" sheetId="23" r:id="rId5"/>
+    <sheet name="Temp i wilg K3" sheetId="24" r:id="rId6"/>
+    <sheet name="K4" sheetId="25" r:id="rId7"/>
+    <sheet name="Temp i wilg K4" sheetId="26" r:id="rId8"/>
+    <sheet name="ALARMY" sheetId="9" r:id="rId9"/>
+    <sheet name="INKUBACJA" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="31">
   <si>
     <t>wilgotnosc</t>
   </si>
@@ -61,12 +65,6 @@
     <t>particle 0.5</t>
   </si>
   <si>
-    <t>MAX 5:</t>
-  </si>
-  <si>
-    <t>MAX 0.5</t>
-  </si>
-  <si>
     <t>TEMPERATURA:</t>
   </si>
   <si>
@@ -82,22 +80,64 @@
     <t>WILGOTNOŚĆ:</t>
   </si>
   <si>
-    <t>KAMPANIA:</t>
-  </si>
-  <si>
     <t>Nazwa kampanii</t>
   </si>
   <si>
-    <t>PRODUKT:</t>
+    <t>komora</t>
   </si>
   <si>
-    <t>Nazwa produktu</t>
+    <t>cząstki</t>
   </si>
   <si>
-    <t>LICZBA POMIARÓW:</t>
+    <t xml:space="preserve">Załącznik___do protokołu nr </t>
   </si>
   <si>
-    <t>MAX 0.5:</t>
+    <t>Limit 5,0</t>
+  </si>
+  <si>
+    <t>Limit 0,5</t>
+  </si>
+  <si>
+    <t>MAX 0,5:</t>
+  </si>
+  <si>
+    <t>MAX 5,0:</t>
+  </si>
+  <si>
+    <t>sprawdził ________________________</t>
+  </si>
+  <si>
+    <t>temp i wilg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit: </t>
+  </si>
+  <si>
+    <t>10 -- 90%rH</t>
+  </si>
+  <si>
+    <t>Limit:</t>
+  </si>
+  <si>
+    <t>18 -- 32*C</t>
+  </si>
+  <si>
+    <t>TimeString</t>
+  </si>
+  <si>
+    <t>Time_ms</t>
+  </si>
+  <si>
+    <t>Nr alarmu</t>
+  </si>
+  <si>
+    <t>Numery alarmów krytycznych:</t>
+  </si>
+  <si>
+    <t>1-14, 30-84, 95-161</t>
+  </si>
+  <si>
+    <t>nazwa kampani</t>
   </si>
 </sst>
 </file>
@@ -121,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,11 +231,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -203,6 +269,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -260,7 +335,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -271,10 +346,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.7362454510170127E-2"/>
-          <c:y val="0.16245370370370371"/>
+          <c:x val="7.1224459618604019E-2"/>
+          <c:y val="0.18647750112317038"/>
           <c:w val="0.92023187804306306"/>
-          <c:h val="0.46660433070866142"/>
+          <c:h val="0.55068832612139695"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -285,7 +360,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'K1'!$D$3</c:f>
+              <c:f>'K1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -308,7 +383,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'K1'!$C$4:$C$200</c:f>
+              <c:f>'K1'!$C$2:$C$198</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="197"/>
@@ -317,7 +392,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'K1'!$D$4:$D$200</c:f>
+              <c:f>'K1'!$D$2:$D$198</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="197"/>
@@ -384,7 +459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269863936"/>
@@ -443,7 +518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2092453552"/>
@@ -484,7 +559,1932 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1224459618604019E-2"/>
+          <c:y val="0.18647750112317038"/>
+          <c:w val="0.92023187804306306"/>
+          <c:h val="0.55068832612139695"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'K1'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>particle 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'K1'!$C$2:$C$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'K1'!$E$2:$E$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C05C-41AD-AC4F-2B66FBB1AC3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2092453552"/>
+        <c:axId val="1269863936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2092453552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269863936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269863936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2092453552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1224459618604019E-2"/>
+          <c:y val="0.18647750112317038"/>
+          <c:w val="0.92023187804306306"/>
+          <c:h val="0.55068832612139695"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'K2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>particle 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'K2'!$C$2:$C$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'K2'!$D$2:$D$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-669C-4659-84DD-3B6A6A38D029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2092453552"/>
+        <c:axId val="1269863936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2092453552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269863936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269863936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2092453552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1224459618604019E-2"/>
+          <c:y val="0.18647750112317038"/>
+          <c:w val="0.92023187804306306"/>
+          <c:h val="0.55068832612139695"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'K2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>particle 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'K2'!$C$2:$C$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'K2'!$E$2:$E$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F286-46C8-8CC7-E4BE9BA61F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2092453552"/>
+        <c:axId val="1269863936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2092453552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269863936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269863936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2092453552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1224459618604019E-2"/>
+          <c:y val="0.18647750112317038"/>
+          <c:w val="0.92023187804306306"/>
+          <c:h val="0.55068832612139695"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'K3'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>particle 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'K3'!$C$2:$C$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'K3'!$D$2:$D$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D17-48C9-80D1-107D19D1F5A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2092453552"/>
+        <c:axId val="1269863936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2092453552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269863936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269863936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2092453552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1224459618604019E-2"/>
+          <c:y val="0.18647750112317038"/>
+          <c:w val="0.92023187804306306"/>
+          <c:h val="0.55068832612139695"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'K3'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>particle 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'K3'!$C$2:$C$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'K3'!$E$2:$E$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3ECB-4F56-B7A7-3B896A9CFE45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2092453552"/>
+        <c:axId val="1269863936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2092453552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269863936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269863936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2092453552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1224459618604019E-2"/>
+          <c:y val="0.18647750112317038"/>
+          <c:w val="0.92023187804306306"/>
+          <c:h val="0.55068832612139695"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'K4'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>particle 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'K4'!$C$2:$C$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'K4'!$D$2:$D$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83C2-4562-92B1-A0E855765794}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2092453552"/>
+        <c:axId val="1269863936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2092453552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269863936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269863936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2092453552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1224459618604019E-2"/>
+          <c:y val="0.18647750112317038"/>
+          <c:w val="0.92023187804306306"/>
+          <c:h val="0.55068832612139695"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'K4'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>particle 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'K4'!$C$2:$C$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'K4'!$E$2:$E$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3101-4FF0-9250-0916D43D5F35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2092453552"/>
+        <c:axId val="1269863936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2092453552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269863936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269863936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2092453552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -535,6 +2535,286 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1051,20 +3331,3632 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>511254</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1084,6 +6976,287 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504258</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C48B840-D790-4412-B07F-D31EB909C54F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511254</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9EB358-7D2C-4C62-8290-8589BB262144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504258</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD21CEC7-E949-42BA-B561-7F35EC418151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511254</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA5EB5A-857C-43E2-9F8D-102B767414D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504258</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3831CD9E-AA2E-4646-A90D-2273B728CFD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511254</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1E5A0B-AF24-4527-99D5-C16243164D85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504258</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74403FC2-8D52-40E4-8602-D5EDE42E0F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1355,79 +7528,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="B1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3">
         <f>MAX(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="1">
         <f>MAX(E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4">
-        <f>COUNTA(B4:B1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f>SUM(E4:INDEX(E4:E1048576, J4, 0))</f>
-        <v>0</v>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>3520</v>
       </c>
     </row>
   </sheetData>
@@ -1436,110 +7620,153 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3593381C-8472-4227-8F05-DFF81ACC5285}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961867BD-01C0-400C-98B8-8EFA48158EB5}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="15" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="e">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6" t="e">
         <f>AVERAGE(D2:D1048576)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6">
         <f>MAX(D4:D1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
         <f>MIN(D4:D1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6" t="e">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="6" t="e">
         <f>AVERAGE(E4:E1048576)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6">
         <f>MAX(E4:E1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
         <f>MIN(E4:E1048576)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1548,182 +7775,232 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F95402-9C3F-46BD-9B44-B02D601CDF74}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8AEEEA-6C40-4FF6-9A17-8871D831059B}">
+  <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3">
         <f>MAX(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="1">
         <f>MAX(E2:E1048576)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>3520</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D8B0D5-D338-4A4C-A7F2-82AB45388D3F}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD372D5D-47AC-45E8-B8EA-36FBE68781AC}">
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="6" t="e">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6" t="e">
         <f>AVERAGE(D2:D1048576)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="6">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6">
         <f>MAX(D4:D1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
         <f>MIN(D4:D1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="6" t="e">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="6" t="e">
         <f>AVERAGE(E4:E1048576)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="6">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6">
         <f>MAX(E4:E1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="1">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
         <f>MIN(E4:E1048576)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1732,26 +8009,232 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96D9552-2A2F-46BB-BE26-599EEB233E81}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0D8658-84DD-4439-B2C9-5308625B1C99}">
+  <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3">
+        <f>MAX(D2:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="1">
+        <f>MAX(E2:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
         <v>15</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>3520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9ED967-0FA1-429E-B405-E64497B0BF8F}">
+  <dimension ref="B1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="15" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6" t="e">
+        <f>AVERAGE(D2:D1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6">
+        <f>MAX(D4:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <f>MIN(D4:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="6" t="e">
+        <f>AVERAGE(E4:E1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6">
+        <f>MAX(E4:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
+        <f>MIN(E4:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1759,16 +8242,284 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3593381C-8472-4227-8F05-DFF81ACC5285}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F609873-7EBA-487E-BBC1-503B4ACE4808}">
+  <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3">
+        <f>MAX(D2:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="1">
+        <f>MAX(E2:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>3520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DABED4-D0C4-4995-A19C-BEACF8047F3C}">
+  <dimension ref="B1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="15" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6" t="e">
+        <f>AVERAGE(D2:D1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6">
+        <f>MAX(D4:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <f>MIN(D4:D1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="6" t="e">
+        <f>AVERAGE(E4:E1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6">
+        <f>MAX(E4:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
+        <f>MIN(E4:E1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96D9552-2A2F-46BB-BE26-599EEB233E81}">
+  <dimension ref="B1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/szablony/szablon_dnia.xlsx
+++ b/szablony/szablon_dnia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Antek\Pulpit\usprawnienie\szablony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33F4FB9-719F-4B70-9C1A-7628C83CDC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5DE51D-8A7B-4AF2-A9C2-8624558D4F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
   <si>
     <t>wilgotnosc</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>nazwa kampani</t>
+  </si>
+  <si>
+    <t>Ilość alarmów krytycznych:</t>
+  </si>
+  <si>
+    <t>Ilość alarmów niekrytycznych:</t>
   </si>
 </sst>
 </file>
@@ -8478,10 +8484,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96D9552-2A2F-46BB-BE26-599EEB233E81}">
-  <dimension ref="B1:G2"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8490,7 +8496,7 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8502,7 +8508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -8517,6 +8523,24 @@
       </c>
       <c r="G2" s="11" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIFS(D3:D1048576, "&gt;=1", D3:D1048576, "&lt;=14") + COUNTIFS(D3:D1048576, "&gt;=30", D3:D1048576, "&lt;=84") + COUNTIFS(D3:D1048576, "&gt;=95", D3:D1048576, "&lt;=161")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <f>COUNTA(D3:D1048576)-G4</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/szablony/szablon_dnia.xlsx
+++ b/szablony/szablon_dnia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Antek\Pulpit\usprawnienie\szablony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5DE51D-8A7B-4AF2-A9C2-8624558D4F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3283A02A-8091-459B-9C78-0825A8F5C36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -7536,7 +7536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -8486,7 +8486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96D9552-2A2F-46BB-BE26-599EEB233E81}">
   <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -8526,19 +8526,19 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <f>COUNTIFS(D3:D1048576, "&gt;=1", D3:D1048576, "&lt;=14") + COUNTIFS(D3:D1048576, "&gt;=30", D3:D1048576, "&lt;=84") + COUNTIFS(D3:D1048576, "&gt;=95", D3:D1048576, "&lt;=161")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>COUNTA(D3:D1048576)-G4</f>
         <v>0</v>
       </c>

--- a/szablony/szablon_dnia.xlsx
+++ b/szablony/szablon_dnia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Antek\Pulpit\usprawnienie\szablony\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoni Szczakiewicz\Desktop\usprawnienie\szablony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3283A02A-8091-459B-9C78-0825A8F5C36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E74AD7-45E2-4C38-BED9-C48F82037FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="36">
   <si>
     <t>wilgotnosc</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>Ilość alarmów niekrytycznych:</t>
+  </si>
+  <si>
+    <t>Sprawdził:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnia temp: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnia CO2: </t>
   </si>
 </sst>
 </file>
@@ -341,7 +350,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -465,7 +474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269863936"/>
@@ -524,7 +533,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2092453552"/>
@@ -565,7 +574,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -616,7 +625,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -740,7 +749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269863936"/>
@@ -799,7 +808,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2092453552"/>
@@ -840,7 +849,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -891,7 +900,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1015,7 +1024,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269863936"/>
@@ -1074,7 +1083,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2092453552"/>
@@ -1115,7 +1124,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1166,7 +1175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1290,7 +1299,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269863936"/>
@@ -1349,7 +1358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2092453552"/>
@@ -1390,7 +1399,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1441,7 +1450,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1565,7 +1574,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269863936"/>
@@ -1624,7 +1633,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2092453552"/>
@@ -1665,7 +1674,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1716,7 +1725,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1840,7 +1849,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269863936"/>
@@ -1899,7 +1908,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2092453552"/>
@@ -1940,7 +1949,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1991,7 +2000,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2115,7 +2124,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269863936"/>
@@ -2174,7 +2183,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2092453552"/>
@@ -2215,7 +2224,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2266,7 +2275,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2390,7 +2399,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269863936"/>
@@ -2449,7 +2458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2092453552"/>
@@ -2490,7 +2499,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7536,26 +7545,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -7581,12 +7590,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
@@ -7595,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M7" s="4" t="s">
         <v>17</v>
       </c>
@@ -7604,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>15</v>
       </c>
@@ -7612,7 +7621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M10" t="s">
         <v>16</v>
       </c>
@@ -7628,14 +7637,48 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3593381C-8472-4227-8F05-DFF81ACC5285}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="6" max="7" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="e">
+        <f>AVERAGE(C4:C1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="e">
+        <f>AVERAGE(D4:D1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7648,21 +7691,21 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="15" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -7688,18 +7731,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -7708,7 +7751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
@@ -7717,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
@@ -7726,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
@@ -7734,13 +7777,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H11" s="5" t="s">
         <v>7</v>
       </c>
@@ -7749,7 +7792,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
@@ -7758,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H13" s="4" t="s">
         <v>9</v>
       </c>
@@ -7767,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
@@ -7788,22 +7831,22 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -7829,12 +7872,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
@@ -7843,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M7" s="4" t="s">
         <v>17</v>
       </c>
@@ -7852,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>15</v>
       </c>
@@ -7860,7 +7903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M10" t="s">
         <v>16</v>
       </c>
@@ -7882,21 +7925,21 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="15" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -7922,18 +7965,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -7942,7 +7985,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
@@ -7951,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
@@ -7960,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
@@ -7968,13 +8011,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H11" s="5" t="s">
         <v>7</v>
       </c>
@@ -7983,7 +8026,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
@@ -7992,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H13" s="4" t="s">
         <v>9</v>
       </c>
@@ -8001,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
@@ -8022,22 +8065,22 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -8063,12 +8106,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
@@ -8077,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M7" s="4" t="s">
         <v>17</v>
       </c>
@@ -8086,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>15</v>
       </c>
@@ -8094,7 +8137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M10" t="s">
         <v>16</v>
       </c>
@@ -8116,21 +8159,21 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="15" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -8156,18 +8199,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -8176,7 +8219,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
@@ -8185,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
@@ -8194,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
@@ -8202,13 +8245,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H11" s="5" t="s">
         <v>7</v>
       </c>
@@ -8217,7 +8260,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
@@ -8226,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H13" s="4" t="s">
         <v>9</v>
       </c>
@@ -8235,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
@@ -8256,22 +8299,22 @@
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -8297,12 +8340,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
@@ -8311,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M7" s="4" t="s">
         <v>17</v>
       </c>
@@ -8320,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>15</v>
       </c>
@@ -8328,7 +8371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M10" t="s">
         <v>16</v>
       </c>
@@ -8350,21 +8393,21 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="15" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -8390,18 +8433,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -8410,7 +8453,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
@@ -8419,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
@@ -8428,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
@@ -8436,13 +8479,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H11" s="5" t="s">
         <v>7</v>
       </c>
@@ -8451,7 +8494,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
@@ -8460,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H13" s="4" t="s">
         <v>9</v>
       </c>
@@ -8469,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
@@ -8486,21 +8529,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96D9552-2A2F-46BB-BE26-599EEB233E81}">
   <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -8508,7 +8551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -8525,7 +8568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
@@ -8534,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F5" s="4" t="s">
         <v>32</v>
       </c>

--- a/szablony/szablon_dnia.xlsx
+++ b/szablony/szablon_dnia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoni Szczakiewicz\Desktop\usprawnienie\szablony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E74AD7-45E2-4C38-BED9-C48F82037FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32EAB97-B647-4B0C-BB9F-604B84838024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="21600" windowHeight="11208" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -7546,7 +7546,7 @@
   <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7688,7 +7688,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H3" sqref="H3:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7756,7 +7756,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="6">
-        <f>MAX(D4:D1048576)</f>
+        <f>MAX(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -7765,7 +7765,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="1">
-        <f>MIN(D4:D1048576)</f>
+        <f>MIN(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="6" t="e">
-        <f>AVERAGE(E4:E1048576)</f>
+        <f>AVERAGE(E2:E1048576)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="6">
-        <f>MAX(E4:E1048576)</f>
+        <f>MAX(E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -7806,7 +7806,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="1">
-        <f>MIN(E4:E1048576)</f>
+        <f>MIN(E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H3" sqref="H3:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7990,7 +7990,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="6">
-        <f>MAX(D4:D1048576)</f>
+        <f>MAX(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="1">
-        <f>MIN(D4:D1048576)</f>
+        <f>MIN(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8022,7 +8022,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="6" t="e">
-        <f>AVERAGE(E4:E1048576)</f>
+        <f>AVERAGE(E2:E1048576)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="6">
-        <f>MAX(E4:E1048576)</f>
+        <f>MAX(E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8040,7 +8040,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="1">
-        <f>MIN(E4:E1048576)</f>
+        <f>MIN(E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H3" sqref="H3:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8224,7 +8224,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="6">
-        <f>MAX(D4:D1048576)</f>
+        <f>MAX(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8233,7 +8233,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="1">
-        <f>MIN(D4:D1048576)</f>
+        <f>MIN(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="6" t="e">
-        <f>AVERAGE(E4:E1048576)</f>
+        <f>AVERAGE(E2:E1048576)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8265,7 +8265,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="6">
-        <f>MAX(E4:E1048576)</f>
+        <f>MAX(E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8274,7 +8274,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="1">
-        <f>MIN(E4:E1048576)</f>
+        <f>MIN(E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8389,8 +8389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DABED4-D0C4-4995-A19C-BEACF8047F3C}">
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8458,7 +8458,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="6">
-        <f>MAX(D4:D1048576)</f>
+        <f>MAX(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8467,7 +8467,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="1">
-        <f>MIN(D4:D1048576)</f>
+        <f>MIN(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="6" t="e">
-        <f>AVERAGE(E4:E1048576)</f>
+        <f>AVERAGE(E2:E1048576)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="6">
-        <f>MAX(E4:E1048576)</f>
+        <f>MAX(E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8508,7 +8508,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="1">
-        <f>MIN(E4:E1048576)</f>
+        <f>MIN(E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
@@ -8529,8 +8529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96D9552-2A2F-46BB-BE26-599EEB233E81}">
   <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
